--- a/teaching/traditional_assets/database/data/qatar/qatar_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_banks_regional.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-3.196428571428572</v>
+        <v>3.697530864197531</v>
       </c>
       <c r="H2">
-        <v>-3.196428571428572</v>
+        <v>3.697530864197531</v>
       </c>
       <c r="I2">
-        <v>-2.067955640906695</v>
+        <v>3.414732806244217</v>
       </c>
       <c r="J2">
-        <v>-2.067955640906695</v>
+        <v>3.414732806244217</v>
       </c>
       <c r="K2">
-        <v>-97.8</v>
+        <v>-62.2</v>
       </c>
       <c r="L2">
-        <v>-2.910714285714286</v>
+        <v>3.839506172839506</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>63.3</v>
+        <v>296.3</v>
       </c>
       <c r="V2">
-        <v>0.4024157660521296</v>
+        <v>0.8954366878210941</v>
       </c>
       <c r="W2">
-        <v>-0.3366609294320138</v>
+        <v>-0.3227815256875973</v>
       </c>
       <c r="X2">
-        <v>0.05926944919636358</v>
+        <v>0.0385028908010273</v>
       </c>
       <c r="Y2">
-        <v>-0.3959303786283773</v>
+        <v>-0.3612844164886246</v>
       </c>
       <c r="Z2">
-        <v>0.1144349671923038</v>
+        <v>-0.07725566612192032</v>
       </c>
       <c r="AA2">
-        <v>-0.2366464359222973</v>
+        <v>-0.2638074575747712</v>
       </c>
       <c r="AB2">
-        <v>0.0489672919410644</v>
+        <v>0.03831653165883011</v>
       </c>
       <c r="AC2">
-        <v>-0.2856137278633616</v>
+        <v>-0.3021239892336013</v>
       </c>
       <c r="AD2">
-        <v>74.3</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.81654767232488</v>
+        <v>5.993357305781545</v>
       </c>
       <c r="AF2">
-        <v>85.11654767232488</v>
+        <v>5.993357305781545</v>
       </c>
       <c r="AG2">
-        <v>21.81654767232489</v>
+        <v>-290.3066426942185</v>
       </c>
       <c r="AH2">
-        <v>0.351116903897902</v>
+        <v>0.01779007266190075</v>
       </c>
       <c r="AI2">
-        <v>0.2666420280934084</v>
+        <v>0.03964034804558415</v>
       </c>
       <c r="AJ2">
-        <v>0.1218008495353316</v>
+        <v>-7.151580011167773</v>
       </c>
       <c r="AK2">
-        <v>0.0852486791915416</v>
+        <v>2.000643370310609</v>
       </c>
       <c r="AL2">
-        <v>4.41</v>
+        <v>0.784</v>
       </c>
       <c r="AM2">
-        <v>4.41</v>
+        <v>0.784</v>
       </c>
       <c r="AN2">
-        <v>-1.134004884004884</v>
+        <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-16.66666666666667</v>
+        <v>-76.91326530612244</v>
       </c>
       <c r="AP2">
-        <v>-0.3329753918242503</v>
+        <v>6.008001711386972</v>
       </c>
       <c r="AQ2">
-        <v>-16.66666666666667</v>
+        <v>-76.91326530612244</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-3.196428571428572</v>
+        <v>3.697530864197531</v>
       </c>
       <c r="H3">
-        <v>-3.196428571428572</v>
+        <v>3.697530864197531</v>
       </c>
       <c r="I3">
-        <v>-2.067955640906695</v>
+        <v>3.414732806244217</v>
       </c>
       <c r="J3">
-        <v>-2.067955640906695</v>
+        <v>3.414732806244217</v>
       </c>
       <c r="K3">
-        <v>-97.8</v>
+        <v>-62.2</v>
       </c>
       <c r="L3">
-        <v>-2.910714285714286</v>
+        <v>3.839506172839506</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>63.3</v>
+        <v>296.3</v>
       </c>
       <c r="V3">
-        <v>0.4024157660521296</v>
+        <v>0.8954366878210941</v>
       </c>
       <c r="W3">
-        <v>-0.3366609294320138</v>
+        <v>-0.3227815256875973</v>
       </c>
       <c r="X3">
-        <v>0.05926944919636358</v>
+        <v>0.0385028908010273</v>
       </c>
       <c r="Y3">
-        <v>-0.3959303786283773</v>
+        <v>-0.3612844164886246</v>
       </c>
       <c r="Z3">
-        <v>0.1144349671923038</v>
+        <v>-0.07725566612192032</v>
       </c>
       <c r="AA3">
-        <v>-0.2366464359222973</v>
+        <v>-0.2638074575747712</v>
       </c>
       <c r="AB3">
-        <v>0.0489672919410644</v>
+        <v>0.03831653165883011</v>
       </c>
       <c r="AC3">
-        <v>-0.2856137278633616</v>
+        <v>-0.3021239892336013</v>
       </c>
       <c r="AD3">
-        <v>74.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>10.81654767232488</v>
+        <v>5.993357305781545</v>
       </c>
       <c r="AF3">
-        <v>85.11654767232488</v>
+        <v>5.993357305781545</v>
       </c>
       <c r="AG3">
-        <v>21.81654767232489</v>
+        <v>-290.3066426942185</v>
       </c>
       <c r="AH3">
-        <v>0.351116903897902</v>
+        <v>0.01779007266190075</v>
       </c>
       <c r="AI3">
-        <v>0.2666420280934084</v>
+        <v>0.03964034804558415</v>
       </c>
       <c r="AJ3">
-        <v>0.1218008495353316</v>
+        <v>-7.151580011167773</v>
       </c>
       <c r="AK3">
-        <v>0.0852486791915416</v>
+        <v>2.000643370310609</v>
       </c>
       <c r="AL3">
-        <v>4.41</v>
+        <v>0.784</v>
       </c>
       <c r="AM3">
-        <v>4.41</v>
+        <v>0.784</v>
       </c>
       <c r="AN3">
-        <v>-1.134004884004884</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>-16.66666666666667</v>
+        <v>-76.91326530612244</v>
       </c>
       <c r="AP3">
-        <v>-0.3329753918242503</v>
+        <v>6.008001711386972</v>
       </c>
       <c r="AQ3">
-        <v>-16.66666666666667</v>
+        <v>-76.91326530612244</v>
       </c>
     </row>
   </sheetData>
